--- a/medicine/Mort/Cimetière_du_Grand_Saint_Jean/Cimetière_du_Grand_Saint_Jean.xlsx
+++ b/medicine/Mort/Cimetière_du_Grand_Saint_Jean/Cimetière_du_Grand_Saint_Jean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Grand_Saint_Jean</t>
+          <t>Cimetière_du_Grand_Saint_Jean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Grand Saint Jean est un cimetière paysager situé en périphérie d'Aix-en-Provence, à Puyricard.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Grand_Saint_Jean</t>
+          <t>Cimetière_du_Grand_Saint_Jean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire et situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière fut créé vers 1975, après que la ville d'Aix-en-Provence s'est retrouvée en manque de place pour ses morts.
 La création de ce cimetière fut donc envisagée sur le domaine du Grand Saint Jean, légué par la famille d'Estienne de Saint Jean à la ville. 
-45 ha furent réservés à cet usage, sur les 200 que comptait le terrain[1].
+45 ha furent réservés à cet usage, sur les 200 que comptait le terrain.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Grand_Saint_Jean</t>
+          <t>Cimetière_du_Grand_Saint_Jean</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,50 @@
           <t>Renommée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le cimetière est un cimetière "paysager", dans lequel des îlots traditionnels et des îlots paysagers se côtoient, dans le but de préserver au maximum les arbres de la forêt.
-"Avec ses 8 000 concessions et ses paysages d’une rare beauté, le cimetière du Grand Saint Jean est classé parmi les plus beaux cimetières d’Europe."[1] 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est un cimetière "paysager", dans lequel des îlots traditionnels et des îlots paysagers se côtoient, dans le but de préserver au maximum les arbres de la forêt.
+"Avec ses 8 000 concessions et ses paysages d’une rare beauté, le cimetière du Grand Saint Jean est classé parmi les plus beaux cimetières d’Europe." 
 Ce grand espace situé en forêt provençale est un lieu calme, paisible et esthétique. Il est d'ailleurs parfois utilisé comme décors pour des séries ou des films.
-Liste de productions audiovisuelles
-Cette liste non exhaustive présente différents films ou séries dans lesquels apparaît ce cimetière : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Grand_Saint_Jean</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Grand_Saint_Jean</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Renommée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste de productions audiovisuelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette liste non exhaustive présente différents films ou séries dans lesquels apparaît ce cimetière : 
 Imposture (2017), téléfilm franco-canadien réalisé par Julien Despaux</t>
         </is>
       </c>
